--- a/data/test_case.xlsx
+++ b/data/test_case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\credit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B480C3D-8FFE-4963-9F42-9B559A227BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E00F72-455D-49DF-8E5C-4A1290308C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B02C478-D218-401A-B98F-B62C4DCAFD84}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -657,7 +657,7 @@
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="29.21875" customWidth="1"/>
-    <col min="6" max="6" width="117.44140625" customWidth="1"/>
+    <col min="6" max="6" width="107.5546875" customWidth="1"/>
     <col min="7" max="7" width="58" customWidth="1"/>
   </cols>
   <sheetData>
